--- a/Livro1.xlsx
+++ b/Livro1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\server2test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EB6C635-5B92-4234-9B1F-4CCDBF2D0B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C988AB-6CE8-4E30-9055-2385808515DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Aluno1</t>
   </si>
@@ -66,12 +66,42 @@
   </si>
   <si>
     <t>Alberto</t>
+  </si>
+  <si>
+    <t>Aluno6</t>
+  </si>
+  <si>
+    <t>Aluno7</t>
+  </si>
+  <si>
+    <t>Aluno8</t>
+  </si>
+  <si>
+    <t>Aluno9</t>
+  </si>
+  <si>
+    <t>Aluno10</t>
+  </si>
+  <si>
+    <t>Flisberto</t>
+  </si>
+  <si>
+    <t>Mena</t>
+  </si>
+  <si>
+    <t>Mónica</t>
+  </si>
+  <si>
+    <t>Flismina</t>
+  </si>
+  <si>
+    <t>Manuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,11 +446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,6 +513,61 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Livro1.xlsx
+++ b/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\server2test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C988AB-6CE8-4E30-9055-2385808515DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2A7690-4C18-4BF0-8249-8CA75F60A5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Aluno1</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>Manuel</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Aluno</t>
+  </si>
+  <si>
+    <t>Idade</t>
   </si>
 </sst>
 </file>
@@ -447,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,21 +469,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>19</v>
@@ -482,89 +491,100 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>21</v>
       </c>
     </row>
